--- a/Libro2_actualizado.xlsx
+++ b/Libro2_actualizado.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeronimo Vargas\OneDrive\Documentos\10 SEMESTRE\TESIS IIND-ISIS\REPOSITORIO\ciclorutas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9B9E25-27A8-48D6-AE06-96F5FC420617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8340A4FA-D2C3-44C6-BFC2-604F243823BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NODOS" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
   <si>
     <t>NODO</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>PERFILES</t>
+  </si>
+  <si>
+    <t>PROBABILIDAD</t>
   </si>
 </sst>
 </file>
@@ -428,38 +431,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -477,15 +480,15 @@
       <selection sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -505,7 +508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -525,7 +528,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -545,7 +548,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -565,7 +568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -585,7 +588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -605,7 +608,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -634,13 +637,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220A9FBB-2E7B-4C7C-9740-D717B4AA7E5A}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -654,10 +663,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -671,10 +680,10 @@
         <v>0.1</v>
       </c>
       <c r="E2" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -688,10 +697,10 @@
         <v>0.1</v>
       </c>
       <c r="E3" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -705,10 +714,10 @@
         <v>0.1</v>
       </c>
       <c r="E4" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -722,10 +731,10 @@
         <v>0.3</v>
       </c>
       <c r="E5" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -739,7 +748,7 @@
         <v>0.3</v>
       </c>
       <c r="E6" s="2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -755,9 +764,9 @@
       <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -777,7 +786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -797,7 +806,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -817,7 +826,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -837,7 +846,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -857,7 +866,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>

--- a/Libro2_actualizado.xlsx
+++ b/Libro2_actualizado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeronimo Vargas\OneDrive\Documentos\10 SEMESTRE\TESIS IIND-ISIS\REPOSITORIO\ciclorutas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8340A4FA-D2C3-44C6-BFC2-604F243823BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687318FA-CF61-42EF-82D4-3660431615BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NODOS" sheetId="1" r:id="rId1"/>
@@ -637,7 +637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220A9FBB-2E7B-4C7C-9740-D717B4AA7E5A}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CA9026-958D-474F-AC15-4AB8D88D8110}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Libro2_actualizado.xlsx
+++ b/Libro2_actualizado.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeronimo Vargas\OneDrive\Documentos\10 SEMESTRE\TESIS IIND-ISIS\REPOSITORIO\ciclorutas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687318FA-CF61-42EF-82D4-3660431615BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712A7B53-D4AA-4B58-AA9F-F480B9561843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -761,7 +761,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -831,19 +831,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C4" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F4" s="2">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -871,16 +871,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="C6" s="2">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D6" s="2">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="E6" s="2">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
